--- a/productId.xlsx
+++ b/productId.xlsx
@@ -1,50 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new\Desktop\MoboToBiid\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28762532-68D0-4085-A9A8-642BFAA1D145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFC9CCB3-83CA-4D3A-BDB4-AD282F0FD0FD}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -98,7 +140,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -110,7 +152,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -157,23 +199,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -209,23 +234,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,13 +385,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC9819A-BF51-45D0-BD8A-CECF70D13043}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12895</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12896</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12897</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12898</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12899</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12901</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12902</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12903</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12904</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12905</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12906</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12907</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12908</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12909</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12910</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12911</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12912</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12913</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12914</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12915</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12916</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12917</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12918</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12919</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12920</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12921</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>12923</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>12924</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>12925</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>12927</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/productId.xlsx
+++ b/productId.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A34"/>
+  <dimension ref="A2:A62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,146 @@
         <v>12927</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>12989</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>13028</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>13029</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13030</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>13031</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>13032</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>13033</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>13034</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>13035</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>13036</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>13037</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>13038</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>13039</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>13040</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>13041</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>13042</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>13043</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>13044</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>13045</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>13046</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>13047</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>13048</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>13049</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>13050</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>13062</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>13086</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>13098</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
